--- a/game.xlsx
+++ b/game.xlsx
@@ -18,12 +18,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,13 +33,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -47,76 +93,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,9 +123,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,40 +154,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,187 +185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,30 +376,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -451,20 +420,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,153 +458,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -828,16 +821,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>191770</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>343535</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>534670</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -854,8 +847,134 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="6429375"/>
+          <a:off x="7049770" y="10591800"/>
           <a:ext cx="3086100" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>620395</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144145</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4735195" y="8324850"/>
+          <a:ext cx="2266950" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22225" y="10591800"/>
+          <a:ext cx="4333875" cy="2276475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>563245</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>315595</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7421245" y="6724650"/>
+          <a:ext cx="1809750" cy="1362075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -872,74 +991,32 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>635</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>210185</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57785</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="8210550"/>
-          <a:ext cx="2266950" cy="2038350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2540</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>221615</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2540" y="10277475"/>
-          <a:ext cx="4333875" cy="2276475"/>
+          <a:off x="635" y="6429375"/>
+          <a:ext cx="3486150" cy="2295525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -956,32 +1033,32 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>635</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438785</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>667385</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="10" name="图片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="12563475"/>
-          <a:ext cx="1809750" cy="1362075"/>
+          <a:off x="635" y="8753475"/>
+          <a:ext cx="3409950" cy="1790700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1286,8 +1363,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="N105" sqref="N105"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
